--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H2">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>0.1900707470908889</v>
+        <v>2.426527392115</v>
       </c>
       <c r="R2">
-        <v>1.710636723818</v>
+        <v>21.838746529035</v>
       </c>
       <c r="S2">
-        <v>1.089033126490984E-05</v>
+        <v>6.118514539561873E-05</v>
       </c>
       <c r="T2">
-        <v>1.089033126490984E-05</v>
+        <v>6.118514539561873E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H3">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>12.83663811477756</v>
+        <v>41.45790422000034</v>
       </c>
       <c r="R3">
-        <v>115.529743032998</v>
+        <v>373.121137980003</v>
       </c>
       <c r="S3">
-        <v>0.0007354905662092622</v>
+        <v>0.001045365449300536</v>
       </c>
       <c r="T3">
-        <v>0.0007354905662092623</v>
+        <v>0.001045365449300536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H4">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>7.487138945073332</v>
+        <v>10.39706360661033</v>
       </c>
       <c r="R4">
-        <v>67.38425050565999</v>
+        <v>93.57357245949299</v>
       </c>
       <c r="S4">
-        <v>0.0004289845996094616</v>
+        <v>0.0002621630608931534</v>
       </c>
       <c r="T4">
-        <v>0.0004289845996094616</v>
+        <v>0.0002621630608931533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H5">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>0.04113389012622222</v>
+        <v>0.005110990146</v>
       </c>
       <c r="R5">
-        <v>0.370205011136</v>
+        <v>0.045998911314</v>
       </c>
       <c r="S5">
-        <v>2.356815536031727E-06</v>
+        <v>1.288741582785166E-07</v>
       </c>
       <c r="T5">
-        <v>2.356815536031727E-06</v>
+        <v>1.288741582785166E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.882521666666667</v>
+        <v>0.907169</v>
       </c>
       <c r="H6">
-        <v>5.647565</v>
+        <v>2.721507</v>
       </c>
       <c r="I6">
-        <v>0.007893156820255192</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J6">
-        <v>0.007893156820255192</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>1.273864133892778</v>
+        <v>0.008777767244000001</v>
       </c>
       <c r="R6">
-        <v>11.464777205035</v>
+        <v>0.078999905196</v>
       </c>
       <c r="S6">
-        <v>7.298757234823755E-05</v>
+        <v>2.21332331470168E-07</v>
       </c>
       <c r="T6">
-        <v>7.298757234823757E-05</v>
+        <v>2.21332331470168E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>5.647565</v>
       </c>
       <c r="I7">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J7">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>86.03182312087611</v>
+        <v>5.035434842258333</v>
       </c>
       <c r="R7">
-        <v>774.2864080878851</v>
+        <v>45.318913580325</v>
       </c>
       <c r="S7">
-        <v>0.00492929641962449</v>
+        <v>0.0001269690232860718</v>
       </c>
       <c r="T7">
-        <v>0.004929296419624491</v>
+        <v>0.0001269690232860718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>50.17919860671666</v>
+        <v>86.03182312087611</v>
       </c>
       <c r="R8">
-        <v>451.6127874604499</v>
+        <v>774.2864080878851</v>
       </c>
       <c r="S8">
-        <v>0.002875077326725792</v>
+        <v>0.002169301539066033</v>
       </c>
       <c r="T8">
-        <v>0.002875077326725792</v>
+        <v>0.002169301539066034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>0.2756814929244444</v>
+        <v>21.57558019415944</v>
       </c>
       <c r="R9">
-        <v>2.48113343632</v>
+        <v>194.180221747435</v>
       </c>
       <c r="S9">
-        <v>1.57955015566728E-05</v>
+        <v>0.000544030541531968</v>
       </c>
       <c r="T9">
-        <v>1.579550155667281E-05</v>
+        <v>0.000544030541531968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>103.833693</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H10">
-        <v>311.501079</v>
+        <v>5.647565</v>
       </c>
       <c r="I10">
-        <v>0.435360525505364</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J10">
-        <v>0.4353605255053641</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>70.262148768009</v>
+        <v>0.01060612707</v>
       </c>
       <c r="R10">
-        <v>632.3593389120809</v>
+        <v>0.09545514363</v>
       </c>
       <c r="S10">
-        <v>0.004025754026747201</v>
+        <v>2.674346182825216E-07</v>
       </c>
       <c r="T10">
-        <v>0.004025754026747203</v>
+        <v>2.674346182825216E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>103.833693</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H11">
-        <v>311.501079</v>
+        <v>5.647565</v>
       </c>
       <c r="I11">
-        <v>0.435360525505364</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J11">
-        <v>0.4353605255053641</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>4745.231923933599</v>
+        <v>0.01821527964666667</v>
       </c>
       <c r="R11">
-        <v>42707.08731540239</v>
+        <v>0.16393751682</v>
       </c>
       <c r="S11">
-        <v>0.271883750505548</v>
+        <v>4.593002070468014E-07</v>
       </c>
       <c r="T11">
-        <v>0.2718837505055481</v>
+        <v>4.593002070468014E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H12">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I12">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J12">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>2767.71927535983</v>
+        <v>225.3907762421084</v>
       </c>
       <c r="R12">
-        <v>24909.47347823847</v>
+        <v>2028.516986178975</v>
       </c>
       <c r="S12">
-        <v>0.158579793146873</v>
+        <v>0.005683252313580803</v>
       </c>
       <c r="T12">
-        <v>0.158579793146873</v>
+        <v>0.005683252313580803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,78 +1225,78 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H13">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I13">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J13">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>15.205682892768</v>
+        <v>3850.864920742673</v>
       </c>
       <c r="R13">
-        <v>136.851146034912</v>
+        <v>34657.78428668406</v>
       </c>
       <c r="S13">
-        <v>0.0008712278261958487</v>
+        <v>0.09709996715477497</v>
       </c>
       <c r="T13">
-        <v>0.000871227826195849</v>
+        <v>0.09709996715477497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1385096666666667</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H14">
-        <v>0.415529</v>
+        <v>252.790295</v>
       </c>
       <c r="I14">
-        <v>0.0005807521578527772</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J14">
-        <v>0.0005807521578527772</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>0.09372667507011112</v>
+        <v>965.7431622438562</v>
       </c>
       <c r="R14">
-        <v>0.843540075631</v>
+        <v>8691.688460194706</v>
       </c>
       <c r="S14">
-        <v>5.370182184762955E-06</v>
+        <v>0.02435131620138519</v>
       </c>
       <c r="T14">
-        <v>5.370182184762957E-06</v>
+        <v>0.02435131620138519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>84.26343166666668</v>
+      </c>
+      <c r="H15">
+        <v>252.790295</v>
+      </c>
+      <c r="I15">
+        <v>0.1271670650006795</v>
+      </c>
+      <c r="J15">
+        <v>0.1271670650006795</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G15">
-        <v>0.1385096666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.415529</v>
-      </c>
-      <c r="I15">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="J15">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>6.329934658493445</v>
+        <v>0.4747401740100001</v>
       </c>
       <c r="R15">
-        <v>56.969411926441</v>
+        <v>4.27266156609</v>
       </c>
       <c r="S15">
-        <v>0.0003626811930363165</v>
+        <v>1.197062380846454E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003626811930363165</v>
+        <v>1.197062380846454E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>84.26343166666668</v>
+      </c>
+      <c r="H16">
+        <v>252.790295</v>
+      </c>
+      <c r="I16">
+        <v>0.1271670650006795</v>
+      </c>
+      <c r="J16">
+        <v>0.1271670650006795</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.1385096666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.415529</v>
-      </c>
-      <c r="I16">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="J16">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>3.692018102996666</v>
+        <v>0.8153329648066668</v>
       </c>
       <c r="R16">
-        <v>33.22816292696999</v>
+        <v>7.337996683260001</v>
       </c>
       <c r="S16">
-        <v>0.0002115386022997595</v>
+        <v>2.055870713005021E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002115386022997596</v>
+        <v>2.055870713005021E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H17">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I17">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J17">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>0.02028372494577778</v>
+        <v>0.6547541358049999</v>
       </c>
       <c r="R17">
-        <v>0.182553524512</v>
+        <v>5.892787222244999</v>
       </c>
       <c r="S17">
-        <v>1.162180331938224E-06</v>
+        <v>1.650969493597746E-05</v>
       </c>
       <c r="T17">
-        <v>1.162180331938224E-06</v>
+        <v>1.650969493597746E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>68.65562933333334</v>
+        <v>0.244783</v>
       </c>
       <c r="H18">
-        <v>205.966888</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I18">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J18">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>46.45786837207022</v>
+        <v>11.18665890113567</v>
       </c>
       <c r="R18">
-        <v>418.120815348632</v>
+        <v>100.679930110221</v>
       </c>
       <c r="S18">
-        <v>0.002661859250710942</v>
+        <v>0.0002820727899389564</v>
       </c>
       <c r="T18">
-        <v>0.002661859250710943</v>
+        <v>0.0002820727899389564</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>68.65562933333334</v>
+        <v>0.244783</v>
       </c>
       <c r="H19">
-        <v>205.966888</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I19">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J19">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,95 +1615,95 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>3137.583520893217</v>
+        <v>2.805457881405666</v>
       </c>
       <c r="R19">
-        <v>28238.25168803896</v>
+        <v>25.249120932651</v>
       </c>
       <c r="S19">
-        <v>0.1797716083975303</v>
+        <v>7.073991784839291E-05</v>
       </c>
       <c r="T19">
-        <v>0.1797716083975304</v>
+        <v>7.07399178483929E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>68.65562933333334</v>
+        <v>0.244783</v>
       </c>
       <c r="H20">
-        <v>205.966888</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I20">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J20">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>1830.037083125093</v>
+        <v>0.001379107422</v>
       </c>
       <c r="R20">
-        <v>16470.33374812584</v>
+        <v>0.012411966798</v>
       </c>
       <c r="S20">
-        <v>0.1048541680786446</v>
+        <v>3.477433982630593E-08</v>
       </c>
       <c r="T20">
-        <v>0.1048541680786446</v>
+        <v>3.477433982630593E-08</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>68.65562933333334</v>
+        <v>0.244783</v>
       </c>
       <c r="H21">
-        <v>205.966888</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I21">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J21">
-        <v>0.2878636982069153</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>10.05411344125156</v>
+        <v>0.002368520308</v>
       </c>
       <c r="R21">
-        <v>90.487020971264</v>
+        <v>0.021316682772</v>
       </c>
       <c r="S21">
-        <v>0.0005760624800293673</v>
+        <v>5.972249062111044E-08</v>
       </c>
       <c r="T21">
-        <v>0.0005760624800293674</v>
+        <v>5.972249062111043E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>63.709236</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H22">
-        <v>191.127708</v>
+        <v>188.394814</v>
       </c>
       <c r="I22">
-        <v>0.267124144996993</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J22">
-        <v>0.2671241449969931</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>43.110744580068</v>
+        <v>167.9750141018966</v>
       </c>
       <c r="R22">
-        <v>387.996701220612</v>
+        <v>1511.77512691707</v>
       </c>
       <c r="S22">
-        <v>0.002470081781334579</v>
+        <v>0.004235507785344865</v>
       </c>
       <c r="T22">
-        <v>0.00247008178133458</v>
+        <v>0.004235507785344864</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>63.709236</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H23">
-        <v>191.127708</v>
+        <v>188.394814</v>
       </c>
       <c r="I23">
-        <v>0.267124144996993</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J23">
-        <v>0.2671241449969931</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>2911.531813826748</v>
+        <v>2869.90044646469</v>
       </c>
       <c r="R23">
-        <v>26203.78632444073</v>
+        <v>25829.10401818221</v>
       </c>
       <c r="S23">
-        <v>0.1668197049056425</v>
+        <v>0.07236484395704329</v>
       </c>
       <c r="T23">
-        <v>0.1668197049056426</v>
+        <v>0.07236484395704329</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>63.709236</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H24">
-        <v>191.127708</v>
+        <v>188.394814</v>
       </c>
       <c r="I24">
-        <v>0.267124144996993</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J24">
-        <v>0.2671241449969931</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>1698.18943544316</v>
+        <v>719.7309668185761</v>
       </c>
       <c r="R24">
-        <v>15283.70491898844</v>
+        <v>6477.578701367185</v>
       </c>
       <c r="S24">
-        <v>0.09729979907798629</v>
+        <v>0.01814809261730221</v>
       </c>
       <c r="T24">
-        <v>0.09729979907798632</v>
+        <v>0.01814809261730221</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>63.709236</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H25">
-        <v>191.127708</v>
+        <v>188.394814</v>
       </c>
       <c r="I25">
-        <v>0.267124144996993</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J25">
-        <v>0.2671241449969931</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>9.329750411136001</v>
+        <v>0.353805460692</v>
       </c>
       <c r="R25">
-        <v>83.96775370022401</v>
+        <v>3.184249146228</v>
       </c>
       <c r="S25">
-        <v>0.0005345592320296101</v>
+        <v>8.92124219349342E-06</v>
       </c>
       <c r="T25">
-        <v>0.0005345592320296104</v>
+        <v>8.921242193493418E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>62.79827133333333</v>
+      </c>
+      <c r="H26">
+        <v>188.394814</v>
+      </c>
+      <c r="I26">
+        <v>0.09477268720988248</v>
+      </c>
+      <c r="J26">
+        <v>0.09477268720988248</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.6076360734213334</v>
+      </c>
+      <c r="R26">
+        <v>5.468724660792001</v>
+      </c>
+      <c r="S26">
+        <v>1.532160799862306E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.532160799862306E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>512.5237530000001</v>
+      </c>
+      <c r="H27">
+        <v>1537.571259</v>
+      </c>
+      <c r="I27">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="J27">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>1370.916472855755</v>
+      </c>
+      <c r="R27">
+        <v>12338.2482557018</v>
+      </c>
+      <c r="S27">
+        <v>0.03456780417542176</v>
+      </c>
+      <c r="T27">
+        <v>0.03456780417542175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>512.5237530000001</v>
+      </c>
+      <c r="H28">
+        <v>1537.571259</v>
+      </c>
+      <c r="I28">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="J28">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>23422.49422362218</v>
+      </c>
+      <c r="R28">
+        <v>210802.4480125996</v>
+      </c>
+      <c r="S28">
+        <v>0.5906006745513154</v>
+      </c>
+      <c r="T28">
+        <v>0.5906006745513154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>512.5237530000001</v>
+      </c>
+      <c r="H29">
+        <v>1537.571259</v>
+      </c>
+      <c r="I29">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="J29">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>5874.034562291749</v>
+      </c>
+      <c r="R29">
+        <v>52866.31106062574</v>
+      </c>
+      <c r="S29">
+        <v>0.1481144041153594</v>
+      </c>
+      <c r="T29">
+        <v>0.1481144041153594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>512.5237530000001</v>
+      </c>
+      <c r="H30">
+        <v>1537.571259</v>
+      </c>
+      <c r="I30">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="J30">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>2.887558824402</v>
+      </c>
+      <c r="R30">
+        <v>25.988029419618</v>
+      </c>
+      <c r="S30">
+        <v>7.281010182845904E-05</v>
+      </c>
+      <c r="T30">
+        <v>7.281010182845902E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>512.5237530000001</v>
+      </c>
+      <c r="H31">
+        <v>1537.571259</v>
+      </c>
+      <c r="I31">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="J31">
+        <v>0.7734807391890958</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>4.959179834028001</v>
+      </c>
+      <c r="R31">
+        <v>44.632618506252</v>
+      </c>
+      <c r="S31">
+        <v>0.0001250462451707791</v>
+      </c>
+      <c r="T31">
+        <v>0.0001250462451707791</v>
       </c>
     </row>
   </sheetData>
